--- a/SeleniumPractice/src/test/java/com/resources/TestData.xlsx
+++ b/SeleniumPractice/src/test/java/com/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navarked\Documents\SeleniumPracticeNew\SeleniumPractice\src\test\java\com\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0D4A1F-7E47-4560-AE6D-A8BEC9FDD29C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9A6B2-ED3A-48FF-AF08-EB2C87C8B2BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D4CC18FC-7D18-434B-8406-A57AC197B38F}"/>
   </bookViews>
@@ -113,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +433,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,16 +444,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
